--- a/y2s1/statistics-ii/tutorials/stat2t8.xlsx
+++ b/y2s1/statistics-ii/tutorials/stat2t8.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D133B-9C20-43BC-954A-F2B768082FC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACDCCC2-87C3-4B79-8D06-5E7A4EF5EF5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="3690" windowWidth="14400" windowHeight="7440" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T8" sheetId="1" r:id="rId1"/>
+    <sheet name="T8-FULL" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="2" r:id="rId2"/>
+    <sheet name="Q2" sheetId="3" r:id="rId3"/>
+    <sheet name="Q3" sheetId="4" r:id="rId4"/>
+    <sheet name="Q4" sheetId="5" r:id="rId5"/>
+    <sheet name="Q5" sheetId="6" r:id="rId6"/>
+    <sheet name="Q6" sheetId="7" r:id="rId7"/>
+    <sheet name="Q7" sheetId="8" r:id="rId8"/>
+    <sheet name="Q8" sheetId="9" r:id="rId9"/>
+    <sheet name="Q9" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="249">
   <si>
     <t>Question 1</t>
   </si>
@@ -533,16 +542,260 @@
   </si>
   <si>
     <t>Prediction, x=60</t>
+  </si>
+  <si>
+    <t>Spearman's RCC</t>
+  </si>
+  <si>
+    <t>(a)</t>
+  </si>
+  <si>
+    <t>Spe. RCC</t>
+  </si>
+  <si>
+    <t>(b)</t>
+  </si>
+  <si>
+    <t>Rs=0.7091 shows that there is a high degree of agreement between the two panel members.</t>
+  </si>
+  <si>
+    <t>Comm.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The scatter diagram shows that there is a negative linear relationship </t>
+  </si>
+  <si>
+    <t>between the weeks of experiene and number of rejects</t>
+  </si>
+  <si>
+    <t>r=</t>
+  </si>
+  <si>
+    <t>Interpret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a very high negative linear correlation between the </t>
+  </si>
+  <si>
+    <t>weeks of experience and the number of rejects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the weeks of experience increase, the number of </t>
+  </si>
+  <si>
+    <t>rejects is expected to decrease.</t>
+  </si>
+  <si>
+    <t>©</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>ry</t>
+  </si>
+  <si>
+    <t>rs=</t>
+  </si>
+  <si>
+    <t>There is a very high degee of disagreement between weeks of experience</t>
+  </si>
+  <si>
+    <t>and number  of rejects</t>
+  </si>
+  <si>
+    <t>Comm.</t>
+  </si>
+  <si>
+    <t>There is a positive linear correlation between the output and the total cost</t>
+  </si>
+  <si>
+    <t>Q4b</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>EXY</t>
+  </si>
+  <si>
+    <t>EX^2</t>
+  </si>
+  <si>
+    <t>EY^2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r=0.9338 shows that there is a very high positive linear correlation between the total</t>
+  </si>
+  <si>
+    <t>cost and the output. When output is increased, the total cost is expected to increase,</t>
+  </si>
+  <si>
+    <t>and vice versa</t>
+  </si>
+  <si>
+    <t>Q4c</t>
+  </si>
+  <si>
+    <t>There is a very high degree of agreement between the total cost and output</t>
+  </si>
+  <si>
+    <t>Q4d</t>
+  </si>
+  <si>
+    <t>rs=0.9485 is an approximate of r=09338, rs is less accurate</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>There is some positive linear correlation between the median</t>
+  </si>
+  <si>
+    <t>regional income and the average regional house purchase price.</t>
+  </si>
+  <si>
+    <t>When the median regional income increase, the average regional house</t>
+  </si>
+  <si>
+    <t>purchasing price is expected to increase and vice versa.</t>
+  </si>
+  <si>
+    <t>There is a low degree of agreement between the median regional income</t>
+  </si>
+  <si>
+    <t>and the average regional house purchase price</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>y-hat=</t>
+  </si>
+  <si>
+    <t>Winning team</t>
+  </si>
+  <si>
+    <t>52.4976seconds</t>
+  </si>
+  <si>
+    <t>Year 2011</t>
+  </si>
+  <si>
+    <t>n=7</t>
+  </si>
+  <si>
+    <t>Year 2012</t>
+  </si>
+  <si>
+    <t>n=8</t>
+  </si>
+  <si>
+    <t>The insurance premium depend on the driving experience</t>
+  </si>
+  <si>
+    <t>Insurance premium</t>
+  </si>
+  <si>
+    <t>From the scatter diagram, there is a negative linear correlation between the driving experience and the monthly premium</t>
+  </si>
+  <si>
+    <t>Y-hat=</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>indicates that the monthly car insurance premium is decreased by RM1.5476 for every year increased in driving experience.</t>
+  </si>
+  <si>
+    <t>indicates that the monthly cari nsurance premium for a new driver is RM76.6605</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>There is a high negative linear correlation between the drivving experence and the monthly car insurance premium</t>
+  </si>
+  <si>
+    <t>f)</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>58.97% of the variation in the monthly car insurance premium is explaied by the driving expeirnece as the independent variable in simple linear regression model.</t>
+  </si>
+  <si>
+    <t>41.03% of the variation in the monthly car insurance premium Is due to other factors</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>X=10</t>
+  </si>
+  <si>
+    <t>h)</t>
+  </si>
+  <si>
+    <t>i)</t>
+  </si>
+  <si>
+    <t>The estimate in (g) is obtained by interpolation. It is more accurate and more reliable since x=10 is within the range of X, i.e. [2,25]</t>
+  </si>
+  <si>
+    <t>The estimate in (h) is obtained by extrapolation. It is less accurate and unreliable since X=30 is outside the range of X.</t>
+  </si>
+  <si>
+    <t>Indep.</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>0.6498X</t>
+  </si>
+  <si>
+    <t>a represents the cholesterol level when the age of a men is 0</t>
+  </si>
+  <si>
+    <t>b represents the change in the cholestrol level when the age of men increase by 1</t>
+  </si>
+  <si>
+    <t>There is some positive linear correlation between the age of men and the cholesterol level</t>
+  </si>
+  <si>
+    <t>X=60</t>
+  </si>
+  <si>
+    <t>16.68% of the variation in the cholesterol level is explained by the age as the independent variable in simple linear regression model.</t>
+  </si>
+  <si>
+    <t>The rest is due to other factors.</t>
+  </si>
+  <si>
+    <t>When the age is increased, the cholesterol level is expected to be increased and vice versa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;RM&quot;#,##0.00_);[Red]\(&quot;RM&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="[$$-4809]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +819,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -575,7 +836,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -636,32 +897,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,13 +947,33 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,12 +1069,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]T8!$A$46</c:f>
+              <c:f>[1]C8!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N.O.R. ( Y ) </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -808,66 +1099,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]T8!$B$45:$I$45</c:f>
+              <c:f>[1]C8!$B$45:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]T8!$B$46:$I$46</c:f>
+              <c:f>[1]C8!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>6.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,79 +1478,42 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
+            <c:strRef>
+              <c:f>[1]C8!$B$91:$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="6">
+                  <c:v>SUM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]T8!$B$91:$B$100</c:f>
+              <c:f>[1]C8!$C$91:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]T8!$C$91:$C$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,12 +1767,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]T8!$B$273</c:f>
+              <c:f>[1]C8!$B$273</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Monthly Premium (RM)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1558,67 +1797,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]T8!$C$272:$J$272</c:f>
+              <c:f>[1]C8!$C$272:$J$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]T8!$C$273:$J$273</c:f>
+              <c:f>[1]C8!$C$273:$J$273</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1816,6 +2007,1372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between weeks of experience and no. of rejects</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q3'!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q3'!$C$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B1A-461D-9A64-5BB404614556}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="601943055"/>
+        <c:axId val="601669391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="601943055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY"/>
+                  <a:t>Weeks of experience</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601669391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="601669391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY"/>
+                  <a:t>Number of rejects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601943055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q4'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost (Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q4'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q4'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7986-44BD-A6E9-1C5AC9A8EE35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="608412191"/>
+        <c:axId val="639632271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="608412191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639632271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="639632271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608412191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-MY"/>
+              <a:t>Relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-MY" baseline="0"/>
+              <a:t> between the driving experience and monthly premium (RM)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q8'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Premium (RM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q8'!$C$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q8'!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86C1-49CF-A70F-D71E7FD2753B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="601960655"/>
+        <c:axId val="643174591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="601960655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY"/>
+                  <a:t>Driving experience (years)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643174591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="643174591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY"/>
+                  <a:t>Monthly premium</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-MY" baseline="0"/>
+                  <a:t> (RM)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-MY"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601960655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1936,6 +3493,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2969,6 +4646,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3603,6 +6828,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DABC14-6466-4324-BABB-AF30D02EA64D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C9FF90-6A77-40EC-AD41-4EE3CE6D3211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F213017-EA69-47EA-93A6-623BC8649A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3611,199 +6959,93 @@
       <sheetName val="T8"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="45">
           <cell r="B45">
-            <v>4</v>
+            <v>1.22</v>
           </cell>
           <cell r="C45">
+            <v>2</v>
+          </cell>
+          <cell r="D45">
+            <v>5.33</v>
+          </cell>
+          <cell r="E45">
             <v>5</v>
           </cell>
-          <cell r="D45">
-            <v>7</v>
-          </cell>
-          <cell r="E45">
-            <v>9</v>
-          </cell>
           <cell r="F45">
-            <v>10</v>
+            <v>-3</v>
           </cell>
           <cell r="G45">
-            <v>11</v>
-          </cell>
-          <cell r="H45">
-            <v>12</v>
-          </cell>
-          <cell r="I45">
-            <v>14</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="A46" t="str">
-            <v xml:space="preserve">N.O.R. ( Y ) </v>
-          </cell>
           <cell r="B46">
-            <v>21</v>
+            <v>6.46</v>
           </cell>
           <cell r="C46">
-            <v>22</v>
+            <v>9</v>
           </cell>
           <cell r="D46">
-            <v>15</v>
+            <v>15.23</v>
           </cell>
           <cell r="E46">
-            <v>18</v>
+            <v>9</v>
           </cell>
           <cell r="F46">
-            <v>14</v>
+            <v>0</v>
           </cell>
           <cell r="G46">
-            <v>14</v>
-          </cell>
-          <cell r="H46">
-            <v>11</v>
-          </cell>
-          <cell r="I46">
-            <v>13</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="91">
-          <cell r="B91">
-            <v>20</v>
+          <cell r="B91"/>
+          <cell r="C91">
+            <v>40</v>
           </cell>
-          <cell r="C91">
+        </row>
+        <row r="92">
+          <cell r="B92"/>
+          <cell r="C92">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93"/>
+          <cell r="C93">
             <v>60</v>
           </cell>
         </row>
-        <row r="92">
-          <cell r="B92">
-            <v>2</v>
-          </cell>
-          <cell r="C92">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>4</v>
-          </cell>
-          <cell r="C93">
-            <v>26</v>
-          </cell>
-        </row>
         <row r="94">
-          <cell r="B94">
-            <v>23</v>
-          </cell>
+          <cell r="B94"/>
           <cell r="C94">
-            <v>66</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="95">
-          <cell r="B95">
-            <v>18</v>
-          </cell>
+          <cell r="B95"/>
           <cell r="C95">
-            <v>49</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="96">
-          <cell r="B96">
-            <v>14</v>
-          </cell>
+          <cell r="B96"/>
           <cell r="C96">
-            <v>48</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="97">
-          <cell r="B97">
-            <v>10</v>
+          <cell r="B97" t="str">
+            <v>SUM</v>
           </cell>
           <cell r="C97">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>8</v>
-          </cell>
-          <cell r="C98">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>13</v>
-          </cell>
-          <cell r="C99">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>8</v>
-          </cell>
-          <cell r="C100">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="C272">
-            <v>5</v>
-          </cell>
-          <cell r="D272">
-            <v>2</v>
-          </cell>
-          <cell r="E272">
-            <v>12</v>
-          </cell>
-          <cell r="F272">
-            <v>9</v>
-          </cell>
-          <cell r="G272">
-            <v>15</v>
-          </cell>
-          <cell r="H272">
-            <v>6</v>
-          </cell>
-          <cell r="I272">
-            <v>25</v>
-          </cell>
-          <cell r="J272">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273" t="str">
-            <v>Monthly Premium (RM)</v>
-          </cell>
-          <cell r="C273">
-            <v>64</v>
-          </cell>
-          <cell r="D273">
-            <v>87</v>
-          </cell>
-          <cell r="E273">
-            <v>50</v>
-          </cell>
-          <cell r="F273">
-            <v>71</v>
-          </cell>
-          <cell r="G273">
-            <v>44</v>
-          </cell>
-          <cell r="H273">
-            <v>56</v>
-          </cell>
-          <cell r="I273">
-            <v>42</v>
-          </cell>
-          <cell r="J273">
-            <v>60</v>
+            <v>290</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4074,8 +7316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C261" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272:J273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4091,291 +7333,291 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>7</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f>B9-C9</f>
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>D9^2</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" ref="D10:D16" si="0">B10-C10</f>
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" ref="E10:E16" si="1">D10^2</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>B12-C12</f>
         <v>2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>D12^2</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <f>SUM(E9:E16)</f>
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E18" s="5"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E19" s="6"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -4397,217 +7639,217 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>5</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>9</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>10</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>9</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>6</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>7</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>8</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f>B26-B27</f>
         <v>1</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" ref="C28:J28" si="2">C26-C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f>K26-K27</f>
         <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f>B28^2</f>
         <v>1</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" ref="C29:J29" si="3">C28^2</f>
         <v>0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f>K28^2</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B34">
@@ -4616,7 +7858,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B35">
@@ -4625,7 +7867,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B36">
@@ -4934,7 +8176,7 @@
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="8">
         <f>J49</f>
         <v>1069</v>
       </c>
@@ -4960,7 +8202,7 @@
       <c r="A74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="8">
         <f>J47</f>
         <v>732</v>
       </c>
@@ -4986,7 +8228,7 @@
       <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="8">
         <f>J48</f>
         <v>2156</v>
       </c>
@@ -5077,7 +8319,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B79">
@@ -5103,7 +8345,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B80">
@@ -5128,111 +8370,111 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="8">
         <f>B76*B74-(B71)^2</f>
         <v>672</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J81" s="8">
         <f>SUM(J73:J80)</f>
         <v>160.5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="8">
         <f>B76*B75-B72^2</f>
         <v>864</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="8">
         <f>J81*6</f>
         <v>963</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F83" s="11" t="s">
+    <row r="83" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F83" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="8">
         <f>COUNTA(F73:F80)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="8">
         <f>(B79-B80)/SQRT(B81*B82)</f>
         <v>-0.87141809054905162</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="8">
         <f>G83^2-1</f>
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11" t="s">
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="8">
         <f>1-G82/(G83*G84)</f>
         <v>-0.91071428571428581</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11" t="s">
+    <row r="86" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G86" s="12" t="s">
+      <c r="G86" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-    </row>
-    <row r="87" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-    </row>
-    <row r="88" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-    </row>
-    <row r="89" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+    </row>
+    <row r="88" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>56</v>
       </c>
@@ -5243,7 +8485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -5254,7 +8496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2</v>
       </c>
@@ -5265,7 +8507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>3</v>
       </c>
@@ -5276,7 +8518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>4</v>
       </c>
@@ -5287,7 +8529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5</v>
       </c>
@@ -5298,7 +8540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>6</v>
       </c>
@@ -5309,7 +8551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>7</v>
       </c>
@@ -5320,7 +8562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>8</v>
       </c>
@@ -5331,7 +8573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9</v>
       </c>
@@ -5342,7 +8584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>10</v>
       </c>
@@ -5353,7 +8595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>59</v>
@@ -5956,31 +9198,31 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E168" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="F168" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G168" s="15" t="s">
+      <c r="G168" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H168" s="15" t="s">
+      <c r="H168" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I168" s="15" t="s">
+      <c r="I168" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6223,28 +9465,28 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176" s="16">
+      <c r="A176" s="12">
         <v>56</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="12">
         <v>11</v>
       </c>
-      <c r="C176" s="16">
+      <c r="C176" s="12">
         <f t="shared" si="13"/>
         <v>616</v>
       </c>
-      <c r="D176" s="16">
+      <c r="D176" s="12">
         <f t="shared" si="14"/>
         <v>3136</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="12">
         <f t="shared" si="14"/>
         <v>121</v>
       </c>
-      <c r="F176" s="16">
+      <c r="F176" s="12">
         <v>9</v>
       </c>
-      <c r="G176" s="16">
+      <c r="G176" s="12">
         <v>7.5</v>
       </c>
       <c r="H176">
@@ -6263,15 +9505,15 @@
       <c r="B177">
         <v>10</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="12">
         <f t="shared" si="13"/>
         <v>550</v>
       </c>
-      <c r="D177" s="16">
+      <c r="D177" s="12">
         <f t="shared" si="14"/>
         <v>3025</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="12">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -6297,15 +9539,15 @@
       <c r="B178">
         <v>10</v>
       </c>
-      <c r="C178" s="16">
+      <c r="C178" s="12">
         <f t="shared" si="13"/>
         <v>550</v>
       </c>
-      <c r="D178" s="16">
+      <c r="D178" s="12">
         <f t="shared" si="14"/>
         <v>3025</v>
       </c>
-      <c r="E178" s="16">
+      <c r="E178" s="12">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -6331,15 +9573,15 @@
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179" s="16">
+      <c r="C179" s="12">
         <f t="shared" si="13"/>
         <v>616</v>
       </c>
-      <c r="D179" s="16">
+      <c r="D179" s="12">
         <f t="shared" si="14"/>
         <v>3136</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="12">
         <f t="shared" si="14"/>
         <v>121</v>
       </c>
@@ -6365,15 +9607,15 @@
       <c r="B180">
         <v>10</v>
       </c>
-      <c r="C180" s="16">
+      <c r="C180" s="12">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="D180" s="16">
+      <c r="D180" s="12">
         <f t="shared" si="14"/>
         <v>2500</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="12">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -6393,30 +9635,30 @@
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="17">
+      <c r="A181" s="13">
         <f>SUM(A169:A180)</f>
         <v>659</v>
       </c>
-      <c r="B181" s="17">
+      <c r="B181" s="13">
         <f>SUM(B169:B180)</f>
         <v>135</v>
       </c>
-      <c r="C181" s="17">
+      <c r="C181" s="13">
         <f>SUM(C169:C180)</f>
         <v>7449</v>
       </c>
-      <c r="D181" s="17">
+      <c r="D181" s="13">
         <f>SUM(D169:D180)</f>
         <v>36313</v>
       </c>
-      <c r="E181" s="17">
+      <c r="E181" s="13">
         <f>SUM(E169:E180)</f>
         <v>1561</v>
       </c>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17">
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13">
         <f>SUM(I169:I180)</f>
         <v>192.5</v>
       </c>
@@ -6431,7 +9673,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B184">
@@ -6440,7 +9682,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B185">
@@ -6449,7 +9691,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B186">
@@ -6458,7 +9700,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B187">
@@ -6674,12 +9916,12 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="18" t="s">
+      <c r="A209" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B210">
@@ -6733,7 +9975,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="18" t="s">
+      <c r="A220" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6891,17 +10133,17 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="18">
+      <c r="A240" s="14">
         <v>6</v>
       </c>
-      <c r="B240" s="18">
+      <c r="B240" s="14">
         <v>137</v>
       </c>
-      <c r="C240" s="18">
+      <c r="C240" s="14">
         <f t="shared" si="19"/>
         <v>822</v>
       </c>
-      <c r="D240" s="18">
+      <c r="D240" s="14">
         <f t="shared" si="20"/>
         <v>36</v>
       </c>
@@ -7029,7 +10271,7 @@
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A263" s="19">
+      <c r="A263" s="15">
         <v>83.791666666666671</v>
       </c>
       <c r="B263" t="s">
@@ -7039,7 +10281,7 @@
         <f>12.5*7+54.071</f>
         <v>141.571</v>
       </c>
-      <c r="D263" s="20">
+      <c r="D263" s="16">
         <f>C263*1000</f>
         <v>141571</v>
       </c>
@@ -7055,7 +10297,7 @@
         <f>12.5*8+54.071</f>
         <v>154.071</v>
       </c>
-      <c r="D264" s="20">
+      <c r="D264" s="16">
         <f>C264*1000</f>
         <v>154071</v>
       </c>
@@ -7311,17 +10553,17 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B300" s="14">
+      <c r="B300" s="10">
         <v>16</v>
       </c>
-      <c r="C300" s="14">
+      <c r="C300" s="10">
         <v>60</v>
       </c>
-      <c r="D300" s="14">
+      <c r="D300" s="10">
         <f t="shared" si="21"/>
         <v>960</v>
       </c>
-      <c r="E300" s="14">
+      <c r="E300" s="10">
         <f t="shared" si="22"/>
         <v>256</v>
       </c>
@@ -7347,7 +10589,7 @@
         <f t="shared" si="23"/>
         <v>1396</v>
       </c>
-      <c r="F301" s="21">
+      <c r="F301" s="17">
         <f>SUM(F293:F300)</f>
         <v>29642</v>
       </c>
@@ -7465,26 +10707,26 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B324" s="22" t="s">
+      <c r="B324" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C324" s="22"/>
-      <c r="D324" s="22"/>
-      <c r="E324" s="22"/>
-      <c r="F324" s="22"/>
-      <c r="G324" s="22"/>
-      <c r="H324" s="22"/>
-      <c r="I324" s="22"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="20"/>
+      <c r="E324" s="20"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="20"/>
+      <c r="H324" s="20"/>
+      <c r="I324" s="20"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B325" s="22"/>
-      <c r="C325" s="22"/>
-      <c r="D325" s="22"/>
-      <c r="E325" s="22"/>
-      <c r="F325" s="22"/>
-      <c r="G325" s="22"/>
-      <c r="H325" s="22"/>
-      <c r="I325" s="22"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="20"/>
+      <c r="E325" s="20"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="20"/>
+      <c r="H325" s="20"/>
+      <c r="I325" s="20"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
@@ -7492,26 +10734,26 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B327" s="22" t="s">
+      <c r="B327" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C327" s="22"/>
-      <c r="D327" s="22"/>
-      <c r="E327" s="22"/>
-      <c r="F327" s="22"/>
-      <c r="G327" s="22"/>
-      <c r="H327" s="22"/>
-      <c r="I327" s="22"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="20"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="20"/>
+      <c r="H327" s="20"/>
+      <c r="I327" s="20"/>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
-      <c r="D328" s="22"/>
-      <c r="E328" s="22"/>
-      <c r="F328" s="22"/>
-      <c r="G328" s="22"/>
-      <c r="H328" s="22"/>
-      <c r="I328" s="22"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="20"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
@@ -7596,26 +10838,26 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B343" s="22" t="s">
+      <c r="B343" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C343" s="22"/>
-      <c r="D343" s="22"/>
-      <c r="E343" s="22"/>
-      <c r="F343" s="22"/>
-      <c r="G343" s="22"/>
-      <c r="H343" s="22"/>
-      <c r="I343" s="22"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="20"/>
+      <c r="E343" s="20"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="20"/>
+      <c r="H343" s="20"/>
+      <c r="I343" s="20"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B344" s="22"/>
-      <c r="C344" s="22"/>
-      <c r="D344" s="22"/>
-      <c r="E344" s="22"/>
-      <c r="F344" s="22"/>
-      <c r="G344" s="22"/>
-      <c r="H344" s="22"/>
-      <c r="I344" s="22"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="20"/>
+      <c r="E344" s="20"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="20"/>
+      <c r="H344" s="20"/>
+      <c r="I344" s="20"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
@@ -8016,22 +11258,22 @@
       </c>
     </row>
     <row r="384" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B384" s="23">
+      <c r="B384" s="18">
         <f>74-31</f>
         <v>43</v>
       </c>
-      <c r="C384" s="23">
+      <c r="C384" s="18">
         <v>198</v>
       </c>
-      <c r="D384" s="23">
+      <c r="D384" s="18">
         <f t="shared" si="24"/>
         <v>8514</v>
       </c>
-      <c r="E384" s="23">
+      <c r="E384" s="18">
         <f t="shared" si="25"/>
         <v>1849</v>
       </c>
-      <c r="F384" s="23">
+      <c r="F384" s="18">
         <f t="shared" si="25"/>
         <v>39204</v>
       </c>
@@ -8149,17 +11391,17 @@
         <v>189.6</v>
       </c>
     </row>
-    <row r="400" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="16" t="s">
+    <row r="400" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B400" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C400" s="16">
+      <c r="C400" s="12">
         <f>B385/C388</f>
         <v>20.2</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B401" s="15" t="s">
+      <c r="B401" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C401">
@@ -8178,7 +11420,7 @@
       <c r="D403" t="s">
         <v>152</v>
       </c>
-      <c r="E403" s="24" t="s">
+      <c r="E403" s="19" t="s">
         <v>153</v>
       </c>
       <c r="F403">
@@ -8281,4 +11523,3137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6240F753-07F3-411C-A754-529EDC97C290}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11">
+        <v>156.33000000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22">
+        <v>0.40839999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27">
+        <f>C22^2</f>
+        <v>0.16679055999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>195.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" display="EY@" xr:uid="{18E3433E-72E4-413E-82DD-18CF4FEA7147}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9CD740-1098-4490-BF41-EE4A38BBD1FB}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25">
+        <v>5</v>
+      </c>
+      <c r="H4" s="25">
+        <v>6</v>
+      </c>
+      <c r="I4" s="25">
+        <v>7</v>
+      </c>
+      <c r="J4" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>C9-D9</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>E9^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E16" si="0">C10-D10</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="1">E10^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F16">
+        <f>E16^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F9:F16)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19">
+        <f>1-6*F17/(COUNTA(B9:B16)*(COUNTA(B9:B16)^2-1))</f>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423F3D0C-2B8E-4BA5-8072-608F66621130}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="B17:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>(C3-C4)^2</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:L5" si="0">(D3-D4)^2</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <f>1-(6*SUM(C5:L5))/(COUNT(C5:L5)*(COUNT(C5:L5)^2-1))</f>
+        <v>0.70909090909090911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DE5429-4A4F-43A1-B4BB-C7DF5071C32B}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUM(C3:J3)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUM(C4:J4)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <f>C26*D26</f>
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <f>C26^2</f>
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <f>D26^2</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E33" si="0">C27*D27</f>
+        <v>110</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F33" si="1">C27^2</f>
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G33" si="2">D27^2</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <f>SUM(C26:C33)</f>
+        <v>72</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM(D26:D33)</f>
+        <v>128</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E26:E33)</f>
+        <v>1069</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F26:F33)</f>
+        <v>732</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G26:G33)</f>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <f>COUNT(C26:C33)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <f>C37*E34</f>
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <f>C34*D34</f>
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <f>C37*F34-C34^2</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <f>C37*G34-D34^2</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43">
+        <f>(C38-C39)/SQRT((C40)*(C41))</f>
+        <v>-0.87141809054905162</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>14</v>
+      </c>
+      <c r="K51" s="1">
+        <f>SUM(C51:J51)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>14</v>
+      </c>
+      <c r="H52">
+        <v>14</v>
+      </c>
+      <c r="I52">
+        <v>11</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+      <c r="K52" s="1">
+        <f>SUM(C52:J52)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>3.5</v>
+      </c>
+      <c r="H54">
+        <v>3.5</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <f>(C53-C54)^2</f>
+        <v>36</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:J55" si="3">(D53-D54)^2</f>
+        <v>36</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K55">
+        <f>SUM(C55:J55)</f>
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57">
+        <f>1-6*(K55)/(COUNT(C51:J51)*(COUNT(C51:J51)^2-1))</f>
+        <v>-0.91071428571428581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5471017A-BB0F-462B-BD9E-2B36B1114F4A}">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <f>C31*C34</f>
+        <v>57040</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <f>C32*C33</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <f>C31*C35-C32^2</f>
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <f>C31*C36-C33^2</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43">
+        <f>(C38-C39)/SQRT((C40)*(C41))</f>
+        <v>0.93379660473700177</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <f>(D50-C50)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E59" si="0">(D51-C51)^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>3.5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>3.5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <f>SUM(E50:E59)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62">
+        <f>1-6*(E60)/(COUNT(B50:B59)*(COUNT(B50:B59)^2-1))</f>
+        <v>0.94848484848484849</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B2A2B9-2C61-43E3-800B-7C236A817F25}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>C4*D4</f>
+        <v>570</v>
+      </c>
+      <c r="F4">
+        <f>C4^2</f>
+        <v>3249</v>
+      </c>
+      <c r="G4">
+        <f>D4^2</f>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>(H4-I4)^2</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E15" si="0">C5*D5</f>
+        <v>486</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="1">C5^2</f>
+        <v>2916</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="2">D5^2</f>
+        <v>81</v>
+      </c>
+      <c r="H5">
+        <v>4.5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J15" si="3">(H5-I5)^2</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2916</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>4.5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2601</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>9.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3969</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>11.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3136</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>11.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2704</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>9.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3136</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>7.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3025</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>6.5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3025</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>6.5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3136</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>7.5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13">
+        <f>SUM(C4:C15)</f>
+        <v>659</v>
+      </c>
+      <c r="D16" s="13">
+        <f>SUM(D4:D15)</f>
+        <v>135</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" ref="E16:G16" si="4">SUM(E4:E15)</f>
+        <v>7449</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="4"/>
+        <v>36313</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="4"/>
+        <v>1561</v>
+      </c>
+      <c r="J16" s="13">
+        <f>SUM(J4:J15)</f>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>0.48909999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <f>1-6*(J16)/(COUNT(J4:J15)*(COUNT(J4:J15)^2-1))</f>
+        <v>0.32692307692307687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFB0AC3-BBB2-4703-9515-64E123A36688}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>58.6</v>
+      </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>C3^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>55.7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">C4*D4</f>
+        <v>55.7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="1">C4^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>54.8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>109.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>55.9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>167.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>54.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>219.6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>54.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>54.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>53.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>376.59999999999997</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>53.8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>430.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C3:C11)</f>
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
+        <v>496.60000000000008</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E3:E11)</f>
+        <v>1959.6</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F3:F11)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>-0.44569999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>56.964399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18">
+        <f>C16</f>
+        <v>56.964399999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <f>C15</f>
+        <v>-0.44569999999999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <f>(2012-1972)/4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A4059A-0C0B-4F9A-980C-CFABDC0C73ED}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <f>C4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>C4^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E10" si="0">C5*D5</f>
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F10" si="1">C5^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14">
+        <v>137</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C4:C10)</f>
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D4:D10)</f>
+        <v>641</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E4:E10)</f>
+        <v>2273</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F4:F10)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>54.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16">
+        <v>54.07</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16">
+        <f>C13</f>
+        <v>12.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="28">
+        <v>141571.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="28">
+        <v>154071.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ADD708-CE53-4136-8294-0BEB35BA482A}">
+  <dimension ref="A1:J58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>-1.5476000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>76.660300000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30">
+        <v>76.660300000000007</v>
+      </c>
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30">
+        <v>-1.5476000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39">
+        <v>29642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41">
+        <v>-0.76790000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45">
+        <f>C41^2</f>
+        <v>0.58967041000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="28">
+        <v>61.183999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="28">
+        <v>30.233000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>